--- a/Document/Rapport/27_01_2016/Calcul Courbe S.xlsx
+++ b/Document/Rapport/27_01_2016/Calcul Courbe S.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Octobre</t>
   </si>
@@ -76,6 +76,18 @@
   <si>
     <t xml:space="preserve">IPD(Indice de performance délai ) Illustre l'état actuel par raport au délai suppérieur a 1 en avance  , inférieur a 1 en retard </t>
   </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
 </sst>
 </file>
 
@@ -122,10 +134,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,9 +259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -261,27 +273,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$5</c:f>
+              <c:f>Feuil1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6810</c:v>
+                  <c:v>6120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10800</c:v>
+                  <c:v>14090</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13880</c:v>
+                  <c:v>16150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16690</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,9 +349,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -327,27 +363,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$5</c:f>
+              <c:f>Feuil1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2930</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5940</c:v>
+                  <c:v>6190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7772</c:v>
+                  <c:v>14210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7772</c:v>
+                  <c:v>16420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,9 +439,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -393,27 +453,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$2:$D$5</c:f>
+              <c:f>Feuil1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5960</c:v>
+                  <c:v>6810</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7730</c:v>
+                  <c:v>10800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7730</c:v>
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,11 +513,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-963656640"/>
-        <c:axId val="-963655552"/>
+        <c:axId val="359967152"/>
+        <c:axId val="359961168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-963656640"/>
+        <c:axId val="359967152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +560,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-963655552"/>
+        <c:crossAx val="359961168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -484,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-963655552"/>
+        <c:axId val="359961168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +619,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-963656640"/>
+        <c:crossAx val="359967152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -630,37 +714,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -694,9 +747,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -708,27 +761,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$5</c:f>
+              <c:f>Feuil1!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.013840830449827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99664429530201337</c:v>
+                  <c:v>0.90895741556534504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0054333764553687</c:v>
+                  <c:v>1.3157407407407407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0054333764553687</c:v>
+                  <c:v>1.1402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94098179812465532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88376300316598821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75444015444015444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69094766619519099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,9 +837,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -774,27 +851,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$2:$H$5</c:f>
+              <c:f>Feuil1!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.013840830449827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8722466960352423</c:v>
+                  <c:v>1.011437908496732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71962962962962962</c:v>
+                  <c:v>1.0085166784953867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55994236311239198</c:v>
+                  <c:v>1.0167182662538701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0221689634511684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0230366492146596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0230366492146596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0230366492146596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,11 +911,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-963652832"/>
-        <c:axId val="-963667520"/>
+        <c:axId val="359961712"/>
+        <c:axId val="359962256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-963652832"/>
+        <c:axId val="359961712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +958,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-963667520"/>
+        <c:crossAx val="359962256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-963667520"/>
+        <c:axId val="359962256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +1017,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-963652832"/>
+        <c:crossAx val="359961712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,9 +1176,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -1089,27 +1190,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$2:$E$5</c:f>
+              <c:f>Feuil1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-42</c:v>
+                  <c:v>-3410</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-42</c:v>
+                  <c:v>-2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,9 +1266,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Octobre</c:v>
                 </c:pt>
@@ -1155,27 +1280,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mai</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$5</c:f>
+              <c:f>Feuil1!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>870</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3028</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6108</c:v>
+                  <c:v>-270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,11 +1339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-912492016"/>
-        <c:axId val="-912488208"/>
+        <c:axId val="359964432"/>
+        <c:axId val="359297664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-912492016"/>
+        <c:axId val="359964432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1386,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-912488208"/>
+        <c:crossAx val="359297664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-912488208"/>
+        <c:axId val="359297664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1445,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-912492016"/>
+        <c:crossAx val="359964432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3014,13 +3163,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3050,7 +3199,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3074,13 +3223,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3366,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,29 +3585,29 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6120</v>
+      </c>
+      <c r="C3">
+        <v>6190</v>
+      </c>
+      <c r="D3">
         <v>6810</v>
       </c>
-      <c r="C3">
-        <v>5940</v>
-      </c>
-      <c r="D3">
-        <v>5960</v>
-      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">D3-C3</f>
-        <v>20</v>
+        <f t="shared" ref="E3:E9" si="0">D3-C3</f>
+        <v>620</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">B3-C3</f>
-        <v>870</v>
+        <f t="shared" ref="F3:F9" si="1">B3-C3</f>
+        <v>-70</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="2">C3/D3</f>
-        <v>0.99664429530201337</v>
+        <f t="shared" ref="G3:G9" si="2">C3/D3</f>
+        <v>0.90895741556534504</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="3">C3/B3</f>
-        <v>0.8722466960352423</v>
+        <f t="shared" ref="H3:H9" si="3">C3/B3</f>
+        <v>1.011437908496732</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3466,29 +3615,29 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>14090</v>
+      </c>
+      <c r="C4">
+        <v>14210</v>
+      </c>
+      <c r="D4">
         <v>10800</v>
-      </c>
-      <c r="C4">
-        <v>7772</v>
-      </c>
-      <c r="D4">
-        <v>7730</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-42</v>
+        <v>-3410</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>3028</v>
+        <v>-120</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>1.0054333764553687</v>
+        <v>1.3157407407407407</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>0.71962962962962962</v>
+        <v>1.0085166784953867</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,165 +3645,285 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13880</v>
+        <v>16150</v>
       </c>
       <c r="C5">
-        <v>7772</v>
+        <v>16420</v>
       </c>
       <c r="D5">
-        <v>7730</v>
+        <v>14400</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-42</v>
+        <v>-2020</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>6108</v>
+        <v>-270</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1.0054333764553687</v>
+        <v>1.1402777777777777</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>0.55994236311239198</v>
+        <v>1.0167182662538701</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>16690</v>
+      </c>
+      <c r="C6">
+        <v>17060</v>
+      </c>
+      <c r="D6">
+        <v>18130</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1070</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-370</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.94098179812465532</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.0221689634511684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>19100</v>
+      </c>
+      <c r="C7">
+        <v>19540</v>
+      </c>
+      <c r="D7">
+        <v>22110</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2570</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-440</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.88376300316598821</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1.0230366492146596</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>19100</v>
+      </c>
+      <c r="C8">
+        <v>19540</v>
+      </c>
+      <c r="D8">
+        <v>25900</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6360</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-440</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.75444015444015444</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1.0230366492146596</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>19100</v>
+      </c>
+      <c r="C9">
+        <v>19540</v>
+      </c>
+      <c r="D9">
+        <v>28280</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8740</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-440</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.69094766619519099</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1.0230366492146596</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+    <row r="19" spans="2:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B21:F23"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F14"/>
-    <mergeCell ref="B17:F19"/>
+    <mergeCell ref="B24:F26"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:F17"/>
+    <mergeCell ref="B20:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
